--- a/workdir/Topic-Detection-on-Reddit/out/lda_first_try.xlsx
+++ b/workdir/Topic-Detection-on-Reddit/out/lda_first_try.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>topic0</t>
   </si>
@@ -40,103 +40,190 @@
     <t>topic3_value</t>
   </si>
   <si>
+    <t>topic4</t>
+  </si>
+  <si>
+    <t>topic4_value</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>gyerekeid</t>
+  </si>
+  <si>
+    <t>megy</t>
+  </si>
+  <si>
+    <t>elso</t>
+  </si>
+  <si>
+    <t>iskola</t>
+  </si>
+  <si>
+    <t>fidesz</t>
+  </si>
+  <si>
+    <t>csabát</t>
+  </si>
+  <si>
+    <t>jelolt</t>
+  </si>
+  <si>
+    <t>akar</t>
+  </si>
+  <si>
+    <t>mond</t>
+  </si>
+  <si>
+    <t>remél</t>
+  </si>
+  <si>
+    <t>mzp</t>
+  </si>
+  <si>
+    <t>miert</t>
+  </si>
+  <si>
+    <t>börtön</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>subreddit</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>automatically</t>
+  </si>
+  <si>
+    <t>angol</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>ember</t>
+  </si>
+  <si>
+    <t>magyar</t>
+  </si>
+  <si>
+    <t>feri</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>automatikus</t>
+  </si>
+  <si>
+    <t>hazudnak</t>
+  </si>
+  <si>
+    <t>ingyen</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>asszem</t>
+  </si>
+  <si>
+    <t>eleg</t>
+  </si>
+  <si>
+    <t>gyurcsany</t>
+  </si>
+  <si>
+    <t>tenyleg</t>
+  </si>
+  <si>
+    <t>inkabb</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>reddit</t>
+  </si>
+  <si>
+    <t>erdekel</t>
+  </si>
+  <si>
+    <t>apám</t>
+  </si>
+  <si>
+    <t>bizonyiték</t>
+  </si>
+  <si>
+    <t>náci</t>
+  </si>
+  <si>
     <t>szavaz</t>
   </si>
   <si>
-    <t>ember</t>
-  </si>
-  <si>
-    <t>fidesz</t>
-  </si>
-  <si>
-    <t>akar</t>
-  </si>
-  <si>
-    <t>magyar</t>
+    <t>dobrev</t>
+  </si>
+  <si>
+    <t>karácsony</t>
   </si>
   <si>
     <t>orbán</t>
   </si>
   <si>
+    <t>gyurcsány</t>
+  </si>
+  <si>
+    <t>nyer</t>
+  </si>
+  <si>
     <t>annyi</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>gyurcsány</t>
-  </si>
-  <si>
-    <t>mzp</t>
-  </si>
-  <si>
-    <t>spam</t>
-  </si>
-  <si>
-    <t>szeret</t>
+    <t>választás</t>
+  </si>
+  <si>
+    <t>ellenzéki</t>
+  </si>
+  <si>
+    <t>fideszes</t>
+  </si>
+  <si>
+    <t>ország</t>
+  </si>
+  <si>
+    <t>számol</t>
+  </si>
+  <si>
+    <t>csinál</t>
   </si>
   <si>
     <t>kell</t>
   </si>
   <si>
-    <t>magyarország</t>
-  </si>
-  <si>
-    <t>mond</t>
-  </si>
-  <si>
-    <t>megy</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>rész</t>
-  </si>
-  <si>
-    <t>karácsony</t>
-  </si>
-  <si>
-    <t>kormány</t>
-  </si>
-  <si>
-    <t>dobrev</t>
-  </si>
-  <si>
-    <t>amúgy</t>
-  </si>
-  <si>
-    <t>jelöl</t>
-  </si>
-  <si>
-    <t>dolog</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>biztos</t>
-  </si>
-  <si>
-    <t>ellenzéki</t>
-  </si>
-  <si>
-    <t>választás</t>
-  </si>
-  <si>
-    <t>nyer</t>
-  </si>
-  <si>
-    <t>ország</t>
-  </si>
-  <si>
-    <t>igaz</t>
-  </si>
-  <si>
-    <t>hisz</t>
-  </si>
-  <si>
-    <t>klára</t>
+    <t>origó</t>
+  </si>
+  <si>
+    <t>lépés</t>
+  </si>
+  <si>
+    <t>azert</t>
+  </si>
+  <si>
+    <t>forint</t>
+  </si>
+  <si>
+    <t>kurva</t>
   </si>
 </sst>
 </file>
@@ -494,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,440 +612,536 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>4.480865848661359</v>
+        <v>2.43</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>10.03887772160209</v>
+        <v>2.74</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>16.31192402405771</v>
+        <v>1.37</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2">
-        <v>13.099891046218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>35.79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>4.45099321115658</v>
+        <v>1.66</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>9.384019926966079</v>
+        <v>2.42</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>13.9405826514094</v>
+        <v>1.09</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>12.81180794354391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>33.65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>3.736147259333602</v>
+        <v>1.2</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>2.32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>8.097926382500139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>12.90923155494596</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
       <c r="I4">
-        <v>11.73090506416597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>28.18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>3.450758481455283</v>
+        <v>1.16</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>7.790302382449855</v>
+        <v>2.2</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>11.77032767751729</v>
+        <v>0.98</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I5">
-        <v>11.05405868185073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27.04</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>3.128769738106606</v>
+        <v>1.1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>7.60554336656929</v>
+        <v>2.08</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>10.31552496224224</v>
+        <v>0.96</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I6">
-        <v>10.01952508930926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25.56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3.039810710778997</v>
+        <v>1.09</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>7.43565730974567</v>
+        <v>2.08</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>8.408801962369239</v>
+        <v>0.95</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>9.613162238546105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>22.31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>3.017709995307955</v>
+        <v>1.08</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>6.094807430630346</v>
+        <v>1.82</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>6.253897418232217</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I8">
-        <v>8.386483174275789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22.18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>2.95579343318022</v>
+        <v>1.05</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>6.084685236052142</v>
+        <v>1.78</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>5.930510568171123</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I9">
-        <v>7.814986172674127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>19.81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>2.87841494888782</v>
+        <v>1.02</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>6.064137885672058</v>
+        <v>1.74</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>5.654939792516825</v>
+        <v>0.87</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>7.780948753551943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>19.78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>2.831036806251419</v>
+        <v>0.97</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>5.747602153403038</v>
+        <v>1.71</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>5.599134262932099</v>
+        <v>0.85</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I11">
-        <v>7.34050080986271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>19.25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>2.730478805477428</v>
+        <v>0.96</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>5.722047745951387</v>
+        <v>1.7</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>5.534740701124991</v>
+        <v>0.83</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I12">
-        <v>6.925507376027608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>18.72</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>2.616090315342114</v>
+        <v>0.96</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>5.628544839025284</v>
+        <v>1.65</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G13">
-        <v>5.496164582413131</v>
+        <v>0.82</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>6.684061333108669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>18.44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>2.55325816946648</v>
+        <v>0.89</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>5.414938427797493</v>
+        <v>1.65</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <v>5.411081824977943</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I14">
-        <v>6.523080671615616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>15.64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>2.547393153436369</v>
+        <v>0.88</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>4.957726079567447</v>
+        <v>1.59</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>5.402336550129563</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I15">
-        <v>6.461198983725798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>14.25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>0.87</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>2.522366963334773</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
       <c r="E16">
-        <v>4.832591310587981</v>
+        <v>1.58</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>5.273092603598935</v>
+        <v>0.78</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I16">
-        <v>6.232195786620315</v>
+        <v>13.75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/workdir/Topic-Detection-on-Reddit/out/lda_first_try.xlsx
+++ b/workdir/Topic-Detection-on-Reddit/out/lda_first_try.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>topic0</t>
   </si>
@@ -46,184 +46,103 @@
     <t>topic4_value</t>
   </si>
   <si>
-    <t>poll</t>
-  </si>
-  <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>gyerekeid</t>
+    <t>topic5</t>
+  </si>
+  <si>
+    <t>topic5_value</t>
+  </si>
+  <si>
+    <t>topic6</t>
+  </si>
+  <si>
+    <t>topic6_value</t>
+  </si>
+  <si>
+    <t>topic7</t>
+  </si>
+  <si>
+    <t>topic7_value</t>
+  </si>
+  <si>
+    <t>topic8</t>
+  </si>
+  <si>
+    <t>topic8_value</t>
+  </si>
+  <si>
+    <t>topic9</t>
+  </si>
+  <si>
+    <t>topic9_value</t>
+  </si>
+  <si>
+    <t>szavaz</t>
+  </si>
+  <si>
+    <t>mzp</t>
+  </si>
+  <si>
+    <t>dobrev</t>
   </si>
   <si>
     <t>megy</t>
   </si>
   <si>
-    <t>elso</t>
-  </si>
-  <si>
-    <t>iskola</t>
+    <t>karácsony</t>
+  </si>
+  <si>
+    <t>mond</t>
   </si>
   <si>
     <t>fidesz</t>
   </si>
   <si>
-    <t>csabát</t>
-  </si>
-  <si>
-    <t>jelolt</t>
+    <t>előválasztás</t>
+  </si>
+  <si>
+    <t>ország</t>
+  </si>
+  <si>
+    <t>orbán</t>
+  </si>
+  <si>
+    <t>ember</t>
+  </si>
+  <si>
+    <t>gyurcsány</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>akar</t>
   </si>
   <si>
-    <t>mond</t>
-  </si>
-  <si>
-    <t>remél</t>
-  </si>
-  <si>
-    <t>mzp</t>
-  </si>
-  <si>
-    <t>miert</t>
-  </si>
-  <si>
-    <t>börtön</t>
-  </si>
-  <si>
-    <t>spam</t>
-  </si>
-  <si>
-    <t>subreddit</t>
+    <t>biztos</t>
+  </si>
+  <si>
+    <t>nyer</t>
+  </si>
+  <si>
+    <t>hisz</t>
+  </si>
+  <si>
+    <t>annyi</t>
+  </si>
+  <si>
+    <t>amúgy</t>
+  </si>
+  <si>
+    <t>pont</t>
+  </si>
+  <si>
+    <t>tóth</t>
+  </si>
+  <si>
+    <t>választás</t>
   </si>
   <si>
     <t>this</t>
-  </si>
-  <si>
-    <t>automatically</t>
-  </si>
-  <si>
-    <t>angol</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>ember</t>
-  </si>
-  <si>
-    <t>magyar</t>
-  </si>
-  <si>
-    <t>feri</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>automatikus</t>
-  </si>
-  <si>
-    <t>hazudnak</t>
-  </si>
-  <si>
-    <t>ingyen</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>asszem</t>
-  </si>
-  <si>
-    <t>eleg</t>
-  </si>
-  <si>
-    <t>gyurcsany</t>
-  </si>
-  <si>
-    <t>tenyleg</t>
-  </si>
-  <si>
-    <t>inkabb</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>reddit</t>
-  </si>
-  <si>
-    <t>erdekel</t>
-  </si>
-  <si>
-    <t>apám</t>
-  </si>
-  <si>
-    <t>bizonyiték</t>
-  </si>
-  <si>
-    <t>náci</t>
-  </si>
-  <si>
-    <t>szavaz</t>
-  </si>
-  <si>
-    <t>dobrev</t>
-  </si>
-  <si>
-    <t>karácsony</t>
-  </si>
-  <si>
-    <t>orbán</t>
-  </si>
-  <si>
-    <t>gyurcsány</t>
-  </si>
-  <si>
-    <t>nyer</t>
-  </si>
-  <si>
-    <t>annyi</t>
-  </si>
-  <si>
-    <t>választás</t>
-  </si>
-  <si>
-    <t>ellenzéki</t>
-  </si>
-  <si>
-    <t>fideszes</t>
-  </si>
-  <si>
-    <t>ország</t>
-  </si>
-  <si>
-    <t>számol</t>
-  </si>
-  <si>
-    <t>csinál</t>
-  </si>
-  <si>
-    <t>kell</t>
-  </si>
-  <si>
-    <t>origó</t>
-  </si>
-  <si>
-    <t>lépés</t>
-  </si>
-  <si>
-    <t>azert</t>
-  </si>
-  <si>
-    <t>forint</t>
-  </si>
-  <si>
-    <t>kurva</t>
   </si>
 </sst>
 </file>
@@ -581,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,530 +537,685 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>2.43</v>
+        <v>3.59</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2.74</v>
+        <v>5.22</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>1.37</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>35.79</v>
+        <v>6.51</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K2">
-        <v>1.85</v>
+        <v>4.26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>3.99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>4.04</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>2.77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2">
+        <v>5.75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>5.74</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>1.66</v>
+        <v>3.17</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>5.18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>3.33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>4.89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>3.86</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="E3">
-        <v>2.42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>1.09</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <v>33.65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>1.73</v>
+      <c r="M3">
+        <v>3.15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>3.64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>2.76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>5.05</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>3.26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>2.94</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3.13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>28.18</v>
+        <v>3.82</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>1.59</v>
+        <v>3.23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>2.91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4">
+        <v>3.06</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>2.56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>4.48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4">
+        <v>2.99</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>1.16</v>
+        <v>2.72</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2.2</v>
+        <v>3.65</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>0.98</v>
+        <v>2.98</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>27.04</v>
+        <v>3.62</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>1.15</v>
+        <v>3.21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>2.42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>2.65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5">
+        <v>2.39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>4.26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5">
+        <v>2.93</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>1.1</v>
+        <v>2.67</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2.08</v>
+        <v>3.08</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>0.96</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I6">
-        <v>25.56</v>
+        <v>3.46</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>1.14</v>
+        <v>3.13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>2.36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <v>2.64</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>2.35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6">
+        <v>3.56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6">
+        <v>2.79</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>1.09</v>
+        <v>2.65</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>2.4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>3.34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>2.39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>2.32</v>
+      </c>
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
-        <v>2.08</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7">
-        <v>0.95</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>22.31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7">
-        <v>1.1</v>
+      <c r="O7">
+        <v>2.59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>2.3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>3.53</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7">
+        <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>1.08</v>
+        <v>2.46</v>
       </c>
       <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>2.74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="E8">
-        <v>1.82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>0.9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
       <c r="I8">
-        <v>22.18</v>
+        <v>3.08</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>1.09</v>
+        <v>2.37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>2.06</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8">
+        <v>2.52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8">
+        <v>2.22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8">
+        <v>3.45</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8">
+        <v>2.48</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>1.05</v>
+        <v>2.33</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1.78</v>
+        <v>2.69</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>19.81</v>
+        <v>2.95</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>1.08</v>
+        <v>2.22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>2.06</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9">
+        <v>2.34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>2.08</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>3.26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9">
+        <v>2.41</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>1.02</v>
+        <v>1.98</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>1.74</v>
+        <v>2.45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>0.87</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I10">
-        <v>19.78</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>1.06</v>
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>2.05</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10">
+        <v>2.28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10">
+        <v>1.97</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10">
+        <v>2.93</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10">
+        <v>2.27</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>0.97</v>
+        <v>1.93</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>1.71</v>
+        <v>2.32</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>0.85</v>
+        <v>1.84</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>19.25</v>
+        <v>2.49</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0.96</v>
-      </c>
-      <c r="D12" t="s">
+        <v>1.99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
+        <v>1.88</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>2.24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="s">
         <v>33</v>
       </c>
-      <c r="E12">
-        <v>1.7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
-        <v>0.83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12">
-        <v>18.72</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>0.96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>1.65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13">
-        <v>0.82</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>18.44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>0.89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>1.65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14">
-        <v>0.8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14">
-        <v>15.64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>0.88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15">
-        <v>1.59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>0.8</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15">
-        <v>14.25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>0.87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1.58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>0.78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16">
-        <v>13.75</v>
-      </c>
-      <c r="J16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16">
-        <v>0.93</v>
+      <c r="S11">
+        <v>2.9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11">
+        <v>2.22</v>
       </c>
     </row>
   </sheetData>
